--- a/Discharge/Station2_2021-06-25_1158.xlsx
+++ b/Discharge/Station2_2021-06-25_1158.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efarq\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7776BB7-DF9D-4566-BB08-D5AE3E815C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3646F55-695A-4A00-ADEE-8686C6D61DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="870" windowWidth="9380" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,7 +444,7 @@
         <v>0.32</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E12" si="0">(D4-D3)*(B4/100)*C4</f>
+        <f t="shared" ref="E4:E7" si="0">(D4-D3)*(B4/100)*C4</f>
         <v>-5.3999999999999979E-4</v>
       </c>
     </row>
@@ -478,7 +478,7 @@
         <v>0.26</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D12" si="1">(A6/100+(A7/100-A6/100)/2)</f>
+        <f t="shared" ref="D6:D7" si="1">(A6/100+(A7/100-A6/100)/2)</f>
         <v>0.39</v>
       </c>
       <c r="E6">
@@ -508,6 +508,20 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>42</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="2">(A8/100+(A9/100-A8/100)/2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8" si="3">(D8-D7)*(B8/100)*C8</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
